--- a/odrweb/data/test_jf.xlsx
+++ b/odrweb/data/test_jf.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\autoTest_pro\UImgr\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="715" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="test_adddata_school" sheetId="14" r:id="rId1"/>
@@ -20,13 +15,14 @@
     <sheet name="test_tscloudcfg" sheetId="18" r:id="rId6"/>
     <sheet name="test_mediacfg" sheetId="20" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="21" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>schoolName</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -752,16 +748,39 @@
   <si>
     <t>10.1.0.141</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf_type</t>
+  </si>
+  <si>
+    <t>jf_desc</t>
+  </si>
+  <si>
+    <t>jf_appeal</t>
+  </si>
+  <si>
+    <t>消费维权</t>
+  </si>
+  <si>
+    <t>假冒商品</t>
+  </si>
+  <si>
+    <t>假一赔十</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>假冒商品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +970,23 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF070E87"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF070E87"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1381,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,26 +1451,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1450,15 +1492,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1729,7 +1771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1740,7 +1782,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1940,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2816,11 +2858,11 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43167.472531134263</v>
+        <v>43340.421741319442</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()+0.02</f>
-        <v>43167.492531134259</v>
+        <v>43340.441741319439</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>86</v>
@@ -2840,11 +2882,11 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">B2+0.021</f>
-        <v>43167.493531134263</v>
+        <v>43340.442741319443</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">C2+0.021</f>
-        <v>43167.51353113426</v>
+        <v>43340.462741319439</v>
       </c>
       <c r="D3" s="5">
         <v>1235654</v>
@@ -2904,11 +2946,11 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43167.472531134263</v>
+        <v>43340.421741319442</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()+0.02</f>
-        <v>43167.492531134259</v>
+        <v>43340.441741319439</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>86</v>
@@ -2926,11 +2968,11 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">B2+0.021</f>
-        <v>43167.493531134263</v>
+        <v>43340.442741319443</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">C2+0.021</f>
-        <v>43167.51353113426</v>
+        <v>43340.462741319439</v>
       </c>
       <c r="D3" s="5">
         <v>1235654</v>
@@ -3100,7 +3142,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3132,4 +3174,74 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/odrweb/data/test_jf.xlsx
+++ b/odrweb/data/test_jf.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ODR T2\odrtools\odrweb\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="715" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="715" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="test_adddata_school" sheetId="14" r:id="rId1"/>
@@ -14,15 +19,15 @@
     <sheet name="test_e9_jykk" sheetId="22" r:id="rId5"/>
     <sheet name="test_tscloudcfg" sheetId="18" r:id="rId6"/>
     <sheet name="test_mediacfg" sheetId="20" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="21" r:id="rId8"/>
+    <sheet name="gentestdata" sheetId="21" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="219">
   <si>
     <t>schoolName</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -481,10 +486,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>describe_true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>key1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -525,19 +526,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>123456.56468</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>123456.56469</t>
-  </si>
-  <si>
-    <t>123456.56470</t>
-  </si>
-  <si>
     <t>84一体机1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -770,17 +761,60 @@
   </si>
   <si>
     <t>假冒商品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>applicant_tel</t>
+  </si>
+  <si>
+    <t>applicant_id</t>
+  </si>
+  <si>
+    <t>applicant_addr</t>
+  </si>
+  <si>
+    <t>disputer</t>
+  </si>
+  <si>
+    <t>disputer_tel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>假一赔十</t>
+  </si>
+  <si>
+    <t>徐传珠</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>钱桂林</t>
+  </si>
+  <si>
+    <t>321281199507077775</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>13160077223</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295745648</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +1017,13 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF070E87"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1417,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,35 +1489,38 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1492,15 +1536,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1559,7 +1603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,7 +1638,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,7 +1815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2133,7 +2177,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>41</v>
@@ -2168,7 +2212,7 @@
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
@@ -2177,7 +2221,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>37</v>
@@ -2189,7 +2233,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>41</v>
@@ -2198,7 +2242,7 @@
         <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>54</v>
@@ -2207,7 +2251,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>55</v>
@@ -2224,16 +2268,16 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
@@ -2245,7 +2289,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>41</v>
@@ -2254,16 +2298,16 @@
         <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>55</v>
@@ -2280,16 +2324,16 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -2298,10 +2342,10 @@
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
@@ -2310,16 +2354,16 @@
         <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>55</v>
@@ -2331,21 +2375,21 @@
         <v>38</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
@@ -2354,10 +2398,10 @@
         <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>41</v>
@@ -2366,16 +2410,16 @@
         <v>41</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>55</v>
@@ -2387,21 +2431,21 @@
         <v>38</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>37</v>
@@ -2410,10 +2454,10 @@
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>41</v>
@@ -2422,16 +2466,16 @@
         <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>55</v>
@@ -2443,21 +2487,21 @@
         <v>38</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -2466,10 +2510,10 @@
         <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>41</v>
@@ -2478,16 +2522,16 @@
         <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>55</v>
@@ -2499,21 +2543,21 @@
         <v>38</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -2522,10 +2566,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>41</v>
@@ -2534,16 +2578,16 @@
         <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>55</v>
@@ -2555,21 +2599,21 @@
         <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -2578,10 +2622,10 @@
         <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>41</v>
@@ -2590,16 +2634,16 @@
         <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>55</v>
@@ -2611,21 +2655,21 @@
         <v>38</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
@@ -2634,10 +2678,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>41</v>
@@ -2646,16 +2690,16 @@
         <v>41</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>55</v>
@@ -2667,21 +2711,21 @@
         <v>38</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -2690,10 +2734,10 @@
         <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>41</v>
@@ -2702,16 +2746,16 @@
         <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>55</v>
@@ -2723,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2846,10 +2890,10 @@
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2858,11 +2902,11 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43340.421741319442</v>
+        <v>43344.6499744213</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()+0.02</f>
-        <v>43340.441741319439</v>
+        <v>43344.669974421297</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>86</v>
@@ -2882,11 +2926,11 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">B2+0.021</f>
-        <v>43340.442741319443</v>
+        <v>43344.6709744213</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">C2+0.021</f>
-        <v>43340.462741319439</v>
+        <v>43344.690974421297</v>
       </c>
       <c r="D3" s="5">
         <v>1235654</v>
@@ -2934,10 +2978,10 @@
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2946,20 +2990,20 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>43340.421741319442</v>
+        <v>43344.6499744213</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()+0.02</f>
-        <v>43340.441741319439</v>
+        <v>43344.669974421297</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2968,20 +3012,20 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">B2+0.021</f>
-        <v>43340.442741319443</v>
+        <v>43344.6709744213</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">C2+0.021</f>
-        <v>43340.462741319439</v>
+        <v>43344.690974421297</v>
       </c>
       <c r="D3" s="5">
         <v>1235654</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3031,6 +3075,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3070,65 +3115,65 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>gentestdata!$B1</f>
+        <v>jf_appeal</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="11" t="str">
-        <f>Sheet3!$A2</f>
-        <v>123456.56468</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>gentestdata!$C1</f>
+        <v>applicant</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="11" t="str">
-        <f>Sheet3!$A3</f>
-        <v>123456.56469</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>gentestdata!$A2</f>
+        <v>假冒商品</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="11" t="str">
-        <f>Sheet3!$A4</f>
-        <v>123456.56470</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3139,40 +3184,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>135</v>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3180,7 +3265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3190,54 +3275,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
